--- a/ALL_match/oo_info_ttest_SZ.xlsx
+++ b/ALL_match/oo_info_ttest_SZ.xlsx
@@ -28,25 +28,25 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ttest_HLG_NC</t>
-  </si>
-  <si>
-    <t>ttest_PKU6_NC</t>
-  </si>
-  <si>
-    <t>ttest_WUHAN_NC</t>
-  </si>
-  <si>
-    <t>ttest_XIAN_NC</t>
-  </si>
-  <si>
-    <t>ttest_XX_GE_NC</t>
-  </si>
-  <si>
-    <t>ttest_XX_SE_NC</t>
-  </si>
-  <si>
-    <t>ttest_ZMD_NC</t>
+    <t>ttest_HLG_SZ</t>
+  </si>
+  <si>
+    <t>ttest_PKU6_SZ</t>
+  </si>
+  <si>
+    <t>ttest_WUHAN_SZ</t>
+  </si>
+  <si>
+    <t>ttest_XIAN_SZ</t>
+  </si>
+  <si>
+    <t>ttest_XX_GE_SZ</t>
+  </si>
+  <si>
+    <t>ttest_XX_SE_SZ</t>
+  </si>
+  <si>
+    <t>ttest_ZMD_SZ</t>
   </si>
 </sst>
 </file>
@@ -398,7 +398,7 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
